--- a/biology/Botanique/Ancistrorhynchus_obovata/Ancistrorhynchus_obovata.xlsx
+++ b/biology/Botanique/Ancistrorhynchus_obovata/Ancistrorhynchus_obovata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ancistrorhynchus obovata Stévart est une espèce de plantes à fleurs de la famille des Orchidaceae et au genre Ancistrorhynchus, présente au Cameroun et au Gabon.
 </t>
@@ -511,7 +523,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette herbe épiphyte possède une tige courte et épaisse, des feuilles inégalement bilobées au sommet, une inflorescence dense, en racème capituliforme, des fleurs de petite taille.[réf. nécessaire]
 </t>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Relativement rare, l'espèce n'a été collectée que sur deux sites, par René Letouzey à Nyabessang, à 50 km au sud-est de Kribi, dans la région du Sud au Cameroun, et par Tariq Stévart dans les monts de Cristal au Gabon[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Relativement rare, l'espèce n'a été collectée que sur deux sites, par René Letouzey à Nyabessang, à 50 km au sud-est de Kribi, dans la région du Sud au Cameroun, et par Tariq Stévart dans les monts de Cristal au Gabon.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle se développe  en forêt mixte atlantique centrale et semi-caducifoliée à une altitude d'environ 400 m[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle se développe  en forêt mixte atlantique centrale et semi-caducifoliée à une altitude d'environ 400 m.
 </t>
         </is>
       </c>
